--- a/perbandingan/classification_comparison.xlsx
+++ b/perbandingan/classification_comparison.xlsx
@@ -502,7 +502,7 @@
         <v>0.9945945945945946</v>
       </c>
       <c r="E3" t="n">
-        <v>0.810651828298887</v>
+        <v>0.9882801353389588</v>
       </c>
       <c r="F3" t="n">
         <v>0.9945719204718326</v>
@@ -526,7 +526,7 @@
         <v>0.9441441441441442</v>
       </c>
       <c r="E4" t="n">
-        <v>0.810651828298887</v>
+        <v>0.9463413639884228</v>
       </c>
       <c r="F4" t="n">
         <v>0.9438626022670716</v>
@@ -550,7 +550,7 @@
         <v>0.990990990990991</v>
       </c>
       <c r="E5" t="n">
-        <v>0.810651828298887</v>
+        <v>0.9842240430475724</v>
       </c>
       <c r="F5" t="n">
         <v>0.9908702747412425</v>
@@ -574,7 +574,7 @@
         <v>0.8108108108108109</v>
       </c>
       <c r="E6" t="n">
-        <v>0.810651828298887</v>
+        <v>0.7971220088867147</v>
       </c>
       <c r="F6" t="n">
         <v>0.7332263853390615</v>
@@ -598,7 +598,7 @@
         <v>0.9657657657657658</v>
       </c>
       <c r="E7" t="n">
-        <v>0.810651828298887</v>
+        <v>0.952205372793608</v>
       </c>
       <c r="F7" t="n">
         <v>0.9659004815353792</v>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.8702702702702703</v>
+        <v>0.8432432432432433</v>
       </c>
       <c r="E8" t="n">
-        <v>0.810651828298887</v>
+        <v>0.8336248012718601</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8466690905075027</v>
+        <v>0.8062634167415262</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0.9984101748807632</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6449234806804528</v>
+        <v>0.999203187250996</v>
       </c>
       <c r="F10" t="n">
         <v>0.9984078951149032</v>
@@ -694,7 +694,7 @@
         <v>0.766295707472178</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6449234806804528</v>
+        <v>0.988057294631</v>
       </c>
       <c r="F11" t="n">
         <v>0.7585843748366682</v>
@@ -718,7 +718,7 @@
         <v>0.9984101748807632</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6449234806804528</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0.9984078951149032</v>
@@ -742,7 +742,7 @@
         <v>0.890302066772655</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6449234806804528</v>
+        <v>0.8742047682286727</v>
       </c>
       <c r="F13" t="n">
         <v>0.873295320608423</v>
@@ -766,7 +766,7 @@
         <v>0.9348171701112876</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6449234806804528</v>
+        <v>0.9406832985518244</v>
       </c>
       <c r="F14" t="n">
         <v>0.9340013452133274</v>
@@ -790,7 +790,7 @@
         <v>0.9936406995230525</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6449234806804528</v>
+        <v>0.997609561752988</v>
       </c>
       <c r="F15" t="n">
         <v>0.993622347883196</v>
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.995249406175772</v>
+        <v>0.997624703087886</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5068751761059452</v>
+        <v>0.9982142857142856</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9952169605909856</v>
+        <v>0.997616704479412</v>
       </c>
     </row>
     <row r="18">
@@ -862,7 +862,7 @@
         <v>0.98812351543943</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5068751761059452</v>
+        <v>0.9869188503803888</v>
       </c>
       <c r="F18" t="n">
         <v>0.9882370039177238</v>
@@ -886,7 +886,7 @@
         <v>0.997624703087886</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5068751761059452</v>
+        <v>0.9976225697379544</v>
       </c>
       <c r="F19" t="n">
         <v>0.997616704479412</v>
@@ -910,7 +910,7 @@
         <v>0.4916864608076009</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5068751761059452</v>
+        <v>0.4984995773457312</v>
       </c>
       <c r="F20" t="n">
         <v>0.3494184735699824</v>
@@ -934,7 +934,7 @@
         <v>0.995249406175772</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5068751761059452</v>
+        <v>0.9892962806424344</v>
       </c>
       <c r="F21" t="n">
         <v>0.995249406175772</v>
@@ -955,13 +955,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.4893111638954869</v>
+        <v>0.4916864608076009</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5068751761059452</v>
+        <v>0.4943258664412511</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3475563454782067</v>
+        <v>0.3858135502725429</v>
       </c>
     </row>
     <row r="23">
@@ -1006,7 +1006,7 @@
         <v>0.9969512195121952</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1203669346526489</v>
+        <v>0.9948979591836734</v>
       </c>
       <c r="F24" t="n">
         <v>0.9968735333386196</v>
@@ -1030,7 +1030,7 @@
         <v>0.9817073170731708</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1203669346526489</v>
+        <v>0.9959183673469388</v>
       </c>
       <c r="F25" t="n">
         <v>0.9783783391405344</v>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1203669346526489</v>
+        <v>0.9959183673469388</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>0.9115853658536586</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1203669346526489</v>
+        <v>0.8970521541950113</v>
       </c>
       <c r="F27" t="n">
         <v>0.8694227253277318</v>
@@ -1102,7 +1102,7 @@
         <v>0.9969512195121952</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1203669346526489</v>
+        <v>0.9918367346938776</v>
       </c>
       <c r="F28" t="n">
         <v>0.9968735333386196</v>
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.948170731707317</v>
+        <v>0.9573170731707316</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1203669346526489</v>
+        <v>0.9286641929499074</v>
       </c>
       <c r="F29" t="n">
-        <v>0.931233648685818</v>
+        <v>0.9418440140283756</v>
       </c>
     </row>
     <row r="30">
@@ -1174,7 +1174,7 @@
         <v>0.997983870967742</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1896147403685092</v>
+        <v>0.9939470077661032</v>
       </c>
       <c r="F31" t="n">
         <v>0.9979907557888914</v>
@@ -1198,7 +1198,7 @@
         <v>0.8971774193548387</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1896147403685092</v>
+        <v>0.8749428962996803</v>
       </c>
       <c r="F32" t="n">
         <v>0.8864668630975379</v>
@@ -1222,7 +1222,7 @@
         <v>0.995967741935484</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1896147403685092</v>
+        <v>0.9949571087762044</v>
       </c>
       <c r="F33" t="n">
         <v>0.995994999756864</v>
@@ -1246,7 +1246,7 @@
         <v>0.7137096774193549</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1896147403685092</v>
+        <v>0.7140728897010304</v>
       </c>
       <c r="F34" t="n">
         <v>0.608657275679956</v>
@@ -1270,7 +1270,7 @@
         <v>0.9637096774193548</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1896147403685092</v>
+        <v>0.953606415917974</v>
       </c>
       <c r="F35" t="n">
         <v>0.9632579084734626</v>
@@ -1294,10 +1294,10 @@
         <v>0.7237903225806451</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1896147403685092</v>
+        <v>0.722640982691234</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6381145166015497</v>
+        <v>0.6397780314453619</v>
       </c>
     </row>
     <row r="37">
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9889639639639638</v>
+        <v>0.9944444444444442</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>0.975609756097561</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9889639639639638</v>
+        <v>0.9726726726726728</v>
       </c>
       <c r="F39" t="n">
         <v>0.9636022514071296</v>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9889639639639638</v>
+        <v>0.997222222222222</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9889639639639638</v>
+        <v>0.9917417417417416</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9889639639639638</v>
+        <v>0.997222222222222</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9889639639639638</v>
+        <v>0.9944444444444442</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
